--- a/docs/Mapping_casi_uso/cittadinanza/Citt_018.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_018.xlsx
@@ -1330,7 +1330,7 @@
         <v>85</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>105</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_018.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_018.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="108">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -66,6 +69,9 @@
   </si>
   <si>
     <t>numeroatto</t>
+  </si>
+  <si>
+    <t>obbligatoria</t>
   </si>
   <si>
     <t>Data formazione</t>
@@ -388,7 +394,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -400,6 +406,7 @@
     <col min="4" max="4" width="45.0546875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -421,85 +428,100 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -521,945 +543,1089 @@
       <c r="F6" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="E13" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="E39" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="C53" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D53" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_018.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_018.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>
@@ -56,7 +56,7 @@
     <t>Formula</t>
   </si>
   <si>
-    <t>193</t>
+    <t>193.17</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -406,7 +406,7 @@
     <col min="4" max="4" width="45.0546875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1360,7 +1360,7 @@
         <v>96</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>88</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_018.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_018.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="109">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,31 +32,34 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Decreto del Tribunale</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Copia integrale dell'atto di cittadinanza dell'interessato</t>
+  </si>
+  <si>
+    <t>Copia integrale dell'atto di nascita dell'interessato</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>193.17</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Decreto del Tribunale</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Copia integrale dell'atto di cittadinanza dell'interessato</t>
-  </si>
-  <si>
-    <t>Copia integrale dell'atto di nascita dell'interessato</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>193.17</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -544,1088 +547,1088 @@
         <v>5</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_018.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_018.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="112">
   <si>
     <t>Sezione</t>
   </si>
@@ -203,6 +203,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalità</t>
   </si>
   <si>
@@ -333,6 +339,9 @@
   </si>
   <si>
     <t>nomeComuneEnte</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
   </si>
   <si>
     <t>Autorità mittente</t>
@@ -397,7 +406,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -995,7 +1004,7 @@
         <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>41</v>
@@ -1087,7 +1096,7 @@
         <v>71</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>41</v>
@@ -1202,7 +1211,7 @@
         <v>81</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>41</v>
@@ -1265,19 +1274,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1288,16 +1297,16 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>92</v>
@@ -1311,7 +1320,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>93</v>
@@ -1320,7 +1329,7 @@
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>94</v>
@@ -1334,7 +1343,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>95</v>
@@ -1343,7 +1352,7 @@
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>96</v>
@@ -1357,7 +1366,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>97</v>
@@ -1366,7 +1375,7 @@
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>98</v>
@@ -1380,16 +1389,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>100</v>
@@ -1403,7 +1412,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>101</v>
@@ -1412,7 +1421,7 @@
         <v>40</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>102</v>
@@ -1426,7 +1435,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>103</v>
@@ -1435,7 +1444,7 @@
         <v>40</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>104</v>
@@ -1449,7 +1458,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>105</v>
@@ -1458,7 +1467,7 @@
         <v>40</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>106</v>
@@ -1472,19 +1481,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1495,19 +1504,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="E48" s="2" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1518,19 +1527,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1541,19 +1550,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1564,19 +1573,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1587,19 +1596,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1610,24 +1619,70 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D53" s="2" t="s">
+      <c r="C55" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G53" s="2" t="s">
+      <c r="F55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_018.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_018.xlsx
@@ -1510,7 +1510,7 @@
         <v>63</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>91</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_018.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_018.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="120">
   <si>
     <t>Sezione</t>
   </si>
@@ -261,6 +261,30 @@
   </si>
   <si>
     <t>indirizzoResidenza</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
   </si>
   <si>
     <t>flag dichiarante</t>
@@ -406,7 +430,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1234,7 +1258,7 @@
         <v>83</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>41</v>
@@ -1257,7 +1281,7 @@
         <v>85</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>41</v>
@@ -1280,7 +1304,7 @@
         <v>87</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>41</v>
@@ -1297,19 +1321,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1320,19 +1344,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1343,19 +1367,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1366,19 +1390,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1389,16 +1413,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>100</v>
@@ -1412,16 +1436,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>102</v>
@@ -1435,16 +1459,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>104</v>
@@ -1458,16 +1482,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>106</v>
@@ -1481,16 +1505,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>108</v>
@@ -1504,19 +1528,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1527,19 +1551,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1550,19 +1574,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1573,19 +1597,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1596,19 +1620,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1619,19 +1643,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1642,19 +1666,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1665,24 +1689,116 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D55" s="2" t="s">
+      <c r="F56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G55" s="2" t="s">
+      <c r="C57" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_018.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_018.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="122">
   <si>
     <t>Sezione</t>
   </si>
@@ -153,6 +153,12 @@
   </si>
   <si>
     <t>codiceFiscale</t>
+  </si>
+  <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
   </si>
   <si>
     <t>Sesso</t>
@@ -430,7 +436,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -844,7 +850,7 @@
         <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>41</v>
@@ -936,7 +942,7 @@
         <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>41</v>
@@ -1051,7 +1057,7 @@
         <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>41</v>
@@ -1143,7 +1149,7 @@
         <v>73</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>41</v>
@@ -1350,7 +1356,7 @@
         <v>91</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>41</v>
@@ -1413,19 +1419,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="C43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1436,16 +1442,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>102</v>
@@ -1459,7 +1465,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>103</v>
@@ -1468,7 +1474,7 @@
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>104</v>
@@ -1482,7 +1488,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>105</v>
@@ -1491,7 +1497,7 @@
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>106</v>
@@ -1505,7 +1511,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>107</v>
@@ -1514,7 +1520,7 @@
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>108</v>
@@ -1528,16 +1534,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>110</v>
@@ -1551,7 +1557,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>111</v>
@@ -1560,7 +1566,7 @@
         <v>40</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>112</v>
@@ -1574,7 +1580,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>113</v>
@@ -1583,7 +1589,7 @@
         <v>40</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>114</v>
@@ -1597,7 +1603,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>115</v>
@@ -1606,7 +1612,7 @@
         <v>40</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>116</v>
@@ -1620,19 +1626,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1643,19 +1649,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D53" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1666,16 +1672,16 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>102</v>
@@ -1689,7 +1695,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>103</v>
@@ -1698,7 +1704,7 @@
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>104</v>
@@ -1712,19 +1718,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1735,16 +1741,16 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>112</v>
@@ -1758,16 +1764,16 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>114</v>
@@ -1781,16 +1787,16 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>116</v>
@@ -1799,6 +1805,29 @@
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_018.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_018.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="124">
   <si>
     <t>Sezione</t>
   </si>
@@ -56,7 +56,7 @@
     <t>Formula</t>
   </si>
   <si>
-    <t>193.17</t>
+    <t>193.18</t>
   </si>
   <si>
     <t>Si puo' ignorare la sezione per</t>
@@ -227,6 +227,12 @@
     <t>nazionalita</t>
   </si>
   <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
+  </si>
+  <si>
     <t>Stato Residenza</t>
   </si>
   <si>
@@ -317,7 +323,7 @@
     <t>Data formazione documento</t>
   </si>
   <si>
-    <t>evento.trascrizioneCittadinanza.atto.enteEstero</t>
+    <t>evento.trascrizioneCittadinanza.attoEstero.enteEstero</t>
   </si>
   <si>
     <t>dataTrascrizione</t>
@@ -436,7 +442,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -445,7 +451,7 @@
     <col min="1" max="1" width="16.73828125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="50.296875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="45.0546875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="49.65234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
@@ -1126,7 +1132,7 @@
         <v>71</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>41</v>
@@ -1149,7 +1155,7 @@
         <v>73</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>41</v>
@@ -1379,7 +1385,7 @@
         <v>93</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>41</v>
@@ -1442,19 +1448,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="C44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1465,16 +1471,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>104</v>
@@ -1488,7 +1494,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>105</v>
@@ -1497,7 +1503,7 @@
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>106</v>
@@ -1511,7 +1517,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>107</v>
@@ -1520,7 +1526,7 @@
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>108</v>
@@ -1534,7 +1540,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>109</v>
@@ -1543,7 +1549,7 @@
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>110</v>
@@ -1557,16 +1563,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>112</v>
@@ -1580,7 +1586,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>113</v>
@@ -1589,7 +1595,7 @@
         <v>40</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>114</v>
@@ -1603,7 +1609,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>115</v>
@@ -1612,7 +1618,7 @@
         <v>40</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>116</v>
@@ -1626,7 +1632,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>117</v>
@@ -1635,7 +1641,7 @@
         <v>40</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>118</v>
@@ -1649,19 +1655,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1672,19 +1678,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D54" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1695,16 +1701,16 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>104</v>
@@ -1718,7 +1724,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>105</v>
@@ -1727,7 +1733,7 @@
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>106</v>
@@ -1741,19 +1747,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1764,16 +1770,16 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>114</v>
@@ -1787,16 +1793,16 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>116</v>
@@ -1810,16 +1816,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>118</v>
@@ -1828,6 +1834,29 @@
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_018.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_018.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="149">
   <si>
     <t>Sezione</t>
   </si>
@@ -315,6 +315,81 @@
   </si>
   <si>
     <t>flagFirmatario</t>
+  </si>
+  <si>
+    <t>Atto nascita intestatario</t>
+  </si>
+  <si>
+    <t>Provincia registrazione</t>
+  </si>
+  <si>
+    <t>evento.eventoCollegato</t>
+  </si>
+  <si>
+    <t>idProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>opzionale</t>
+  </si>
+  <si>
+    <t>Provincia registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione</t>
+  </si>
+  <si>
+    <t>idComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Tipo evento</t>
+  </si>
+  <si>
+    <t>idtipocontenuto</t>
+  </si>
+  <si>
+    <t>Numero Comunale</t>
+  </si>
+  <si>
+    <t>Anno atto</t>
+  </si>
+  <si>
+    <t>annoAtto</t>
+  </si>
+  <si>
+    <t>Data atto</t>
+  </si>
+  <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>Tipo registro</t>
+  </si>
+  <si>
+    <t>tipologia</t>
   </si>
   <si>
     <t>DPR Revoca</t>
@@ -442,17 +517,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="16.73828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="22.59765625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="50.296875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="49.65234375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
@@ -1477,7 +1552,7 @@
         <v>102</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>103</v>
@@ -1489,7 +1564,7 @@
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46">
@@ -1497,22 +1572,22 @@
         <v>101</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47">
@@ -1520,22 +1595,22 @@
         <v>101</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48">
@@ -1543,22 +1618,22 @@
         <v>101</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49">
@@ -1566,22 +1641,22 @@
         <v>101</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50">
@@ -1589,7 +1664,7 @@
         <v>101</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>40</v>
@@ -1598,13 +1673,13 @@
         <v>103</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51">
@@ -1627,7 +1702,7 @@
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
     </row>
     <row r="52">
@@ -1644,13 +1719,13 @@
         <v>103</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53">
@@ -1658,7 +1733,7 @@
         <v>101</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>40</v>
@@ -1667,13 +1742,13 @@
         <v>103</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54">
@@ -1681,7 +1756,7 @@
         <v>101</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>40</v>
@@ -1696,70 +1771,70 @@
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D55" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1770,19 +1845,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1793,19 +1868,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1816,19 +1891,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1839,24 +1914,300 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_018.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_018.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="151">
   <si>
     <t>Sezione</t>
   </si>
@@ -297,6 +297,12 @@
   </si>
   <si>
     <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Residenza al momento dell'evento originario</t>
+  </si>
+  <si>
+    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>flag dichiarante</t>
@@ -517,7 +523,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H73"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1483,7 +1489,7 @@
         <v>95</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>41</v>
@@ -1546,53 +1552,53 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="C45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E46" s="2" t="s">
+      <c r="F46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>108</v>
@@ -1601,7 +1607,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>109</v>
@@ -1610,12 +1616,12 @@
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>110</v>
@@ -1624,7 +1630,7 @@
         <v>40</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>111</v>
@@ -1633,12 +1639,12 @@
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>112</v>
@@ -1647,7 +1653,7 @@
         <v>40</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>113</v>
@@ -1656,12 +1662,12 @@
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>114</v>
@@ -1670,44 +1676,44 @@
         <v>40</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>117</v>
@@ -1716,44 +1722,44 @@
         <v>40</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>120</v>
@@ -1762,7 +1768,7 @@
         <v>40</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>121</v>
@@ -1771,12 +1777,12 @@
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>122</v>
@@ -1785,7 +1791,7 @@
         <v>40</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>123</v>
@@ -1794,12 +1800,12 @@
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>124</v>
@@ -1808,7 +1814,7 @@
         <v>40</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>125</v>
@@ -1817,44 +1823,44 @@
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="C57" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>131</v>
@@ -1868,7 +1874,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>132</v>
@@ -1877,7 +1883,7 @@
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>133</v>
@@ -1891,7 +1897,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>134</v>
@@ -1900,7 +1906,7 @@
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>135</v>
@@ -1914,7 +1920,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>136</v>
@@ -1923,7 +1929,7 @@
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>137</v>
@@ -1937,16 +1943,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>138</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>139</v>
@@ -1960,7 +1966,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>140</v>
@@ -1969,7 +1975,7 @@
         <v>40</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>141</v>
@@ -1983,7 +1989,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>142</v>
@@ -1992,7 +1998,7 @@
         <v>40</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>143</v>
@@ -2006,7 +2012,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>144</v>
@@ -2015,7 +2021,7 @@
         <v>40</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>145</v>
@@ -2029,19 +2035,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2052,19 +2058,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>127</v>
+        <v>65</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D67" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2075,16 +2081,16 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>131</v>
@@ -2098,7 +2104,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>132</v>
@@ -2107,7 +2113,7 @@
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>133</v>
@@ -2121,19 +2127,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2144,16 +2150,16 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>140</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>141</v>
@@ -2167,16 +2173,16 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>142</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>143</v>
@@ -2190,16 +2196,16 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>144</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>145</v>
@@ -2208,6 +2214,29 @@
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_018.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_018.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="149">
   <si>
     <t>Sezione</t>
   </si>
@@ -297,12 +297,6 @@
   </si>
   <si>
     <t>nomeComuneAIRE</t>
-  </si>
-  <si>
-    <t>Residenza al momento dell'evento originario</t>
-  </si>
-  <si>
-    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>flag dichiarante</t>
@@ -523,7 +517,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H74"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1489,7 +1483,7 @@
         <v>95</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>41</v>
@@ -1552,53 +1546,53 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D46" s="2" t="s">
+      <c r="E46" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>108</v>
@@ -1607,7 +1601,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>109</v>
@@ -1616,12 +1610,12 @@
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>110</v>
@@ -1630,7 +1624,7 @@
         <v>40</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>111</v>
@@ -1639,12 +1633,12 @@
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>112</v>
@@ -1653,7 +1647,7 @@
         <v>40</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>113</v>
@@ -1662,12 +1656,12 @@
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>114</v>
@@ -1676,44 +1670,44 @@
         <v>40</v>
       </c>
       <c r="D50" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="E51" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D51" s="2" t="s">
+      <c r="F51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>117</v>
@@ -1722,44 +1716,44 @@
         <v>40</v>
       </c>
       <c r="D52" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="E53" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D53" s="2" t="s">
+      <c r="F53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>120</v>
@@ -1768,7 +1762,7 @@
         <v>40</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>121</v>
@@ -1777,12 +1771,12 @@
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>122</v>
@@ -1791,7 +1785,7 @@
         <v>40</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>123</v>
@@ -1800,12 +1794,12 @@
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>124</v>
@@ -1814,7 +1808,7 @@
         <v>40</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>125</v>
@@ -1823,44 +1817,44 @@
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>131</v>
@@ -1874,7 +1868,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>132</v>
@@ -1883,7 +1877,7 @@
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>133</v>
@@ -1897,7 +1891,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>134</v>
@@ -1906,7 +1900,7 @@
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>135</v>
@@ -1920,7 +1914,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>136</v>
@@ -1929,7 +1923,7 @@
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>137</v>
@@ -1943,16 +1937,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>138</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>139</v>
@@ -1966,7 +1960,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>140</v>
@@ -1975,7 +1969,7 @@
         <v>40</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>141</v>
@@ -1989,7 +1983,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>142</v>
@@ -1998,7 +1992,7 @@
         <v>40</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>143</v>
@@ -2012,7 +2006,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>144</v>
@@ -2021,7 +2015,7 @@
         <v>40</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>145</v>
@@ -2035,19 +2029,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="E66" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2058,19 +2052,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2081,16 +2075,16 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>131</v>
@@ -2104,7 +2098,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>132</v>
@@ -2113,7 +2107,7 @@
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>133</v>
@@ -2127,19 +2121,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2150,16 +2144,16 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>140</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>141</v>
@@ -2173,16 +2167,16 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>142</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>143</v>
@@ -2196,16 +2190,16 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>144</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>145</v>
@@ -2214,29 +2208,6 @@
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G74" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_018.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_018.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="155">
   <si>
     <t>Sezione</t>
   </si>
@@ -165,6 +165,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -523,7 +535,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H74"/>
+  <dimension ref="A1:H76"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -983,7 +995,7 @@
         <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>41</v>
@@ -1006,7 +1018,7 @@
         <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>41</v>
@@ -1052,7 +1064,7 @@
         <v>57</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>41</v>
@@ -1075,7 +1087,7 @@
         <v>59</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>41</v>
@@ -1167,7 +1179,7 @@
         <v>67</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>41</v>
@@ -1190,7 +1202,7 @@
         <v>69</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>41</v>
@@ -1213,7 +1225,7 @@
         <v>71</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>41</v>
@@ -1236,7 +1248,7 @@
         <v>73</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>41</v>
@@ -1512,7 +1524,7 @@
         <v>97</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>41</v>
@@ -1535,7 +1547,7 @@
         <v>99</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>41</v>
@@ -1575,76 +1587,76 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="C46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E48" s="2" t="s">
+      <c r="F48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>112</v>
@@ -1653,7 +1665,7 @@
         <v>40</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>113</v>
@@ -1662,12 +1674,12 @@
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>114</v>
@@ -1676,7 +1688,7 @@
         <v>40</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>115</v>
@@ -1685,12 +1697,12 @@
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>116</v>
@@ -1699,113 +1711,113 @@
         <v>40</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>124</v>
@@ -1814,7 +1826,7 @@
         <v>40</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>125</v>
@@ -1823,12 +1835,12 @@
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>126</v>
@@ -1837,7 +1849,7 @@
         <v>40</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>127</v>
@@ -1846,67 +1858,67 @@
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="C58" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>135</v>
@@ -1920,7 +1932,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>136</v>
@@ -1929,7 +1941,7 @@
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>137</v>
@@ -1943,7 +1955,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>138</v>
@@ -1952,7 +1964,7 @@
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>139</v>
@@ -1966,16 +1978,16 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>140</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>141</v>
@@ -1989,16 +2001,16 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>142</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>143</v>
@@ -2012,7 +2024,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>144</v>
@@ -2021,7 +2033,7 @@
         <v>40</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>145</v>
@@ -2035,7 +2047,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>146</v>
@@ -2044,7 +2056,7 @@
         <v>40</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>147</v>
@@ -2058,19 +2070,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>65</v>
+        <v>148</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2081,19 +2093,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2104,19 +2116,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>132</v>
+        <v>69</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2127,16 +2139,16 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>135</v>
@@ -2150,19 +2162,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2173,19 +2185,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2196,7 +2208,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>144</v>
@@ -2205,7 +2217,7 @@
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>145</v>
@@ -2219,7 +2231,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>146</v>
@@ -2228,7 +2240,7 @@
         <v>40</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>147</v>
@@ -2237,6 +2249,52 @@
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
         <v>20</v>
       </c>
     </row>
